--- a/Testing/Authored TCs/US-2.4_Accountant_Customer management fuctionality_TCs.xlsx
+++ b/Testing/Authored TCs/US-2.4_Accountant_Customer management fuctionality_TCs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/deepanshu_singla_dxc_com/Documents/Documents/Alchemy/Accounting system/Authoring TC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/deepanshu_singla_dxc_com/Documents/Documents/Alchemy/Accounting system/Testing/Authored TCs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{65034B66-B8A7-4B67-9917-533F35E8A5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CEC1912-BF93-4A29-AC05-A4E185F00DDD}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{65034B66-B8A7-4B67-9917-533F35E8A5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FA535FD-DB1B-4C87-9BC9-BEA18B5A0E9F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BB555361-C202-42F7-AB72-ABC48CA82E11}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="71">
   <si>
     <t>Subject</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Validate company email field.</t>
+  </si>
+  <si>
+    <t>It should not be displayed and should be as per parameter.</t>
   </si>
 </sst>
 </file>
@@ -664,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8D137F-15F3-4AF5-93A6-EE3F3F6817CE}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="73" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -905,7 +908,7 @@
         <v>68</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1231,7 +1234,7 @@
         <v>68</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1442,7 +1445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1453,7 +1456,7 @@
         <v>68</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
